--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/IDAO2020/IDAO-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E458591-441D-4D4C-9216-CAA437608CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B3E407-3B0C-5F48-959F-867B5F14977F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24600" windowHeight="15000" xr2:uid="{DCA56763-5A2D-1C42-84D7-051F35045D3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Track 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Track 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,15 +25,72 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>Track 1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Track 2</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>26.56</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>remove time jumps, stretch all predictors vertically and horizontally</t>
+  </si>
+  <si>
+    <t>55.24</t>
+  </si>
+  <si>
+    <t>ma</t>
+  </si>
+  <si>
+    <t>IDAO example submission</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -56,8 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,12 +432,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431C626-B4BA-7948-B7AE-A0BDF1CBF28B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5FC9C4-A205-5345-9380-09A472EB05EE}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/IDAO2020/IDAO-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B3E407-3B0C-5F48-959F-867B5F14977F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759236A1-BE0C-9942-BC13-A21C77C14493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24600" windowHeight="15000" xr2:uid="{DCA56763-5A2D-1C42-84D7-051F35045D3D}"/>
   </bookViews>
@@ -55,13 +55,13 @@
     <t>remove time jumps, stretch all predictors vertically and horizontally</t>
   </si>
   <si>
-    <t>55.24</t>
-  </si>
-  <si>
     <t>ma</t>
   </si>
   <si>
     <t>IDAO example submission</t>
+  </si>
+  <si>
+    <t>66.24</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,13 +478,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/IDAO2020/IDAO-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiana\Documents\GitHub\IDAO-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759236A1-BE0C-9942-BC13-A21C77C14493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933030D9-48AE-44AC-BF70-331CCC9BACCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24600" windowHeight="15000" xr2:uid="{DCA56763-5A2D-1C42-84D7-051F35045D3D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{DCA56763-5A2D-1C42-84D7-051F35045D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Track 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Track 1</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>66.24</t>
+  </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>had an extra column (sorry, guys!)</t>
+  </si>
+  <si>
+    <t>remove time jumps, stretch all predictors (Separately) horisontally only with LinearAlignment()</t>
   </si>
 </sst>
 </file>
@@ -432,20 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431C626-B4BA-7948-B7AE-A0BDF1CBF28B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -459,7 +468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -473,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -485,6 +494,34 @@
       </c>
       <c r="D4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>87.41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -500,9 +537,9 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -510,7 +547,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>

--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiana\Documents\GitHub\IDAO-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933030D9-48AE-44AC-BF70-331CCC9BACCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8D0C5D-3BF7-4EEB-98AA-B0BE76A7B35D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{DCA56763-5A2D-1C42-84D7-051F35045D3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Track 1</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>remove time jumps, stretch all predictors (Separately) horisontally only with LinearAlignment()</t>
+  </si>
+  <si>
+    <t>time jumps+LinearAligment+prophet (problem satellites (252,372,523,587) are not fitted)</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431C626-B4BA-7948-B7AE-A0BDF1CBF28B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -522,6 +525,25 @@
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiana\Documents\GitHub\IDAO-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8D0C5D-3BF7-4EEB-98AA-B0BE76A7B35D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A84E7-6CE4-4C70-82C6-E413A043D553}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{DCA56763-5A2D-1C42-84D7-051F35045D3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Track 1</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>time jumps+LinearAligment+prophet (problem satellites (252,372,523,587) are not fitted)</t>
+  </si>
+  <si>
+    <t>time jumps+LinearAligment+prophet everything fitted</t>
+  </si>
+  <si>
+    <t>time jumps+LinearAligment (satellites (372,587,523,473,514) only jump removal)</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431C626-B4BA-7948-B7AE-A0BDF1CBF28B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -539,11 +545,42 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>89.63</v>
+      </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>87.35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>89.67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiana\Documents\GitHub\IDAO-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A84E7-6CE4-4C70-82C6-E413A043D553}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9224F3-2312-4A7E-AED2-58DF145F8107}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{DCA56763-5A2D-1C42-84D7-051F35045D3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Track 1</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>time jumps+LinearAligment (satellites (372,587,523,473,514) only jump removal)</t>
+  </si>
+  <si>
+    <t>Prophet() of real values</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431C626-B4BA-7948-B7AE-A0BDF1CBF28B}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -581,6 +584,20 @@
       </c>
       <c r="D10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>80.73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/submissions.xlsx
+++ b/submissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatiana\Documents\GitHub\IDAO-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9224F3-2312-4A7E-AED2-58DF145F8107}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB227385-8095-45B5-BBB6-E770BF4099EE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{DCA56763-5A2D-1C42-84D7-051F35045D3D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Track 1</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Prophet() of real values</t>
+  </si>
+  <si>
+    <t>time jumps+LinearAligment+prophet everything fitted problem points corrected by hand</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6431C626-B4BA-7948-B7AE-A0BDF1CBF28B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -598,6 +601,20 @@
       </c>
       <c r="D11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>89.67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
